--- a/pred_ohlcv/54_21/2019-10-16 LRC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 LRC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>363604.7124438144</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>379305.4397438145</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -626,7 +626,7 @@
         <v>377224.7015438144</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>368909.6166438144</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>344741.9890438144</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>331825.9378438144</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>322975.9378438144</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>340250.9377438144</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>356951.7589545914</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>354555.8488545914</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>354555.8488545914</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>350295.8488545914</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>447256.0211545913</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>460016.0211545913</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>460016.0211545913</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>439063.4607545913</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>472051.0583545913</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>455358.9891545913</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>455446.9891545913</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>453052.5208545913</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>451984.5208545913</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>885155.5929422512</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>885155.5929422512</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>895265.3995422513</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>873979.4765422513</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>808377.9087422513</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>745530.4609422514</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>744442.6100422514</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>745656.3010422514</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>744062.1427422514</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>742993.8864422514</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>746159.4505422515</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>502829.2728422513</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>502829.2728422513</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>502829.2728422513</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>500574.4883422513</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>501917.5328422514</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>480834.7886422513</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>371736.1121422513</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>380064.4756422513</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>380064.4756422513</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>380064.4756422513</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>378714.0366422513</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>380064.0366422513</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-16 LRC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 LRC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>363604.7124438144</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>379305.4397438145</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -600,7 +600,7 @@
         <v>365029.6166438144</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>377224.7015438144</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>368909.6166438144</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>344741.9890438144</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>331825.9378438144</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>322975.9378438144</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>340250.9377438144</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>356951.7589545914</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>354555.8488545914</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>354555.8488545914</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>350295.8488545914</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>447256.0211545913</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>460016.0211545913</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>460016.0211545913</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>439063.4607545913</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>472051.0583545913</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>455358.9891545913</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>455446.9891545913</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>453052.5208545913</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>451984.5208545913</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>780287.1203972751</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>958832.7554422512</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>885155.5929422512</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>885155.5929422512</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>895265.3995422513</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>873979.4765422513</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>808377.9087422513</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>740934.8634422513</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>745530.4609422514</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>745530.4609422514</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>744442.6100422514</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>745656.3010422514</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>744062.1427422514</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>742993.8864422514</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>746159.4505422515</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>746159.4505422515</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>502829.2728422513</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>502829.2728422513</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>502829.2728422513</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>500574.4883422513</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>501917.5328422514</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>480834.7886422513</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>371736.1121422513</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>380064.4756422513</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>380064.4756422513</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>380064.4756422513</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>378714.0366422513</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>380064.0366422513</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
